--- a/project planning/API Endpoints.xlsx
+++ b/project planning/API Endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Resilio Sync\Daniel Schor\Studium\Module\Aktuell\WebApp\Projekt\Repo\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BACE8C-129B-44F5-9B44-D8DA02A55016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985AF29-6F28-46FC-9AF3-F8B769C9F940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>No.</t>
   </si>
@@ -133,6 +133,25 @@
     <t>(keine zusätzlichen Header)
 (keine zusätzlichen Header)
 (keine zusätzlichen Header)</t>
+  </si>
+  <si>
+    <t>Zu
+ueberpruefen</t>
+  </si>
+  <si>
+    <t>Nicht
+richtig</t>
+  </si>
+  <si>
+    <t>Nicht
+fertig</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Fertig /
+Richtig</t>
   </si>
 </sst>
 </file>
@@ -154,15 +173,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -238,22 +275,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,40 +320,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -306,12 +348,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F2D08-239F-4D88-8E6A-1E4C636ABC07}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,291 +833,305 @@
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.140625" customWidth="1"/>
     <col min="7" max="7" width="45.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="10">
+    <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="18">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="11">
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="11">
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="23">
         <v>3</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="11">
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="12">
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="10">
+      <c r="I8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="18">
         <v>6</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="11">
+      <c r="I9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="23">
         <v>7</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="11">
+    <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="8">
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="11">
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="23">
         <v>9</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="11">
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="12">
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="26">
         <v>11</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="22">
+    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="15">
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="22">
+    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="15">
         <v>13</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="12">
+      <c r="B17" s="6"/>
+      <c r="C17" s="9">
         <v>14</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/project planning/API Endpoints.xlsx
+++ b/project planning/API Endpoints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Resilio Sync\Daniel Schor\Studium\Module\Aktuell\WebApp\Projekt\Repo\webappproject23-24-devteam\project planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\Documents\GitHub\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985AF29-6F28-46FC-9AF3-F8B769C9F940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD4FEA-2155-4E30-A3D1-6DDDBE8FFCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -324,14 +324,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,7 +816,7 @@
   <dimension ref="B3:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,230 +851,230 @@
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="8">
+      <c r="C7" s="21">
         <v>4</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>5</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>7</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="8">
+      <c r="C11" s="21">
         <v>8</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>9</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="8">
+      <c r="C13" s="21">
         <v>10</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>11</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>12</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1088,16 +1082,16 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>13</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1106,16 +1100,16 @@
     </row>
     <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>14</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="5" t="s">

--- a/project planning/API Endpoints.xlsx
+++ b/project planning/API Endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\Documents\GitHub\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD4FEA-2155-4E30-A3D1-6DDDBE8FFCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E519E-AE36-42A0-A8F1-D748AFFBF14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
+    <workbookView xWindow="38295" yWindow="4185" windowWidth="28800" windowHeight="15885" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -314,40 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -413,6 +383,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F2D08-239F-4D88-8E6A-1E4C636ABC07}">
   <dimension ref="B3:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,16 +818,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
@@ -851,268 +836,268 @@
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="16">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="21">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="21">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="21">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="24">
+      <c r="C8" s="14">
         <v>5</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="21">
+      <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="21">
+      <c r="C11" s="11">
         <v>8</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="21">
+      <c r="C12" s="11">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="21">
+      <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="24">
+      <c r="C14" s="14">
         <v>11</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="13">
+      <c r="C15" s="28">
         <v>12</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="13">
+      <c r="C16" s="28">
         <v>13</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8">
+      <c r="B17" s="4"/>
+      <c r="C17" s="14">
         <v>14</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="32" t="s">
         <v>26</v>
       </c>
     </row>

--- a/project planning/API Endpoints.xlsx
+++ b/project planning/API Endpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\Documents\GitHub\webappproject23-24-devteam\project planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Resilio Sync\Daniel Schor\Studium\Module\Aktuell\WebApp\Projekt\Repo\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E519E-AE36-42A0-A8F1-D748AFFBF14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827501A-A8BF-4777-8F3B-7094B4F2EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="4185" windowWidth="28800" windowHeight="15885" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -152,13 +152,44 @@
   <si>
     <t>Fertig /
 Richtig</t>
+  </si>
+  <si>
+    <t>Repo</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>/events/{eventID}/add/{userID}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 OK
+404 Not Found
+</t>
+  </si>
+  <si>
+    <t>/events/{eventID}/remove/{userID}</t>
+  </si>
+  <si>
+    <t>/events/{eventID}/{userID}/{rating}</t>
+  </si>
+  <si>
+    <t>200 OK
+404 Not Found
+400 Bad Request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +203,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +237,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -299,11 +356,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -363,12 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -379,71 +538,242 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -456,6 +786,177 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -488,14 +989,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}" name="Tabelle2" displayName="Tabelle2" ref="C3:G17" totalsRowShown="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}" name="Tabelle2" displayName="Tabelle2" ref="C3:G17" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="13">
   <autoFilter ref="C3:G17" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC6E2D57-066A-454A-9442-01C57A7F31A0}" name="No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{95550AC8-0C27-4875-A6C7-CCCAFB9DFD52}" name="HTTP-Methode" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0C62839A-F579-4042-866B-5EF0B9216FA1}" name="URl" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A0DA9802-9B37-436F-B225-D48AA35CC625}" name="HTTP-Statuscode(s)" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{95E14EF1-88FA-4E26-BF8D-8695B027DCF1}" name="HTTP Header" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DC6E2D57-066A-454A-9442-01C57A7F31A0}" name="No." dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{95550AC8-0C27-4875-A6C7-CCCAFB9DFD52}" name="HTTP-Methode" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0C62839A-F579-4042-866B-5EF0B9216FA1}" name="URl" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{A0DA9802-9B37-436F-B225-D48AA35CC625}" name="HTTP-Statuscode(s)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{95E14EF1-88FA-4E26-BF8D-8695B027DCF1}" name="HTTP Header" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{306496EB-F9C2-4FF8-8AFD-A8CEB1C5144A}" name="Tabelle22" displayName="Tabelle22" ref="C19:G29" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="C19:G29" xr:uid="{306496EB-F9C2-4FF8-8AFD-A8CEB1C5144A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{311040A3-5AC1-4F93-A9EC-561F780EBAA0}" name="No." dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{21F7FAD3-B3CC-40CC-ACB8-7628049521CE}" name="HTTP-Methode" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3B012289-4A30-4C7E-B7C5-17C1A8578C6F}" name="URl" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{069F9D91-DC39-4594-86BC-C0E078086CAF}" name="HTTP-Statuscode(s)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9C55A180-DB51-456F-B6B3-E017B0238133}" name="HTTP Header" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -798,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F2D08-239F-4D88-8E6A-1E4C636ABC07}">
-  <dimension ref="B3:L18"/>
+  <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +1333,9 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -836,91 +1354,91 @@
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="6">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="11">
+      <c r="C5" s="33">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="11">
+      <c r="C6" s="33">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="11">
+      <c r="C7" s="33">
         <v>4</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="14">
+      <c r="C8" s="38">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="42" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="27" t="s">
@@ -932,172 +1450,172 @@
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="6">
+      <c r="C9" s="28">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="23" t="s">
+      <c r="G9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="11">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="33">
+        <v>7</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="11">
+      <c r="C11" s="33">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="11">
+      <c r="C12" s="33">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="11">
+      <c r="C13" s="33">
         <v>10</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="14">
+      <c r="C14" s="38">
         <v>11</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="28">
+      <c r="C15" s="43">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="28">
+      <c r="C16" s="43">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="14">
+      <c r="C17" s="38">
         <v>14</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1106,6 +1624,474 @@
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="46">
+        <v>3</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
+        <v>4</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
+        <v>6</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="46">
+        <v>8</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="11">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="14">
+        <v>10</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="51">
+        <v>1</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="56">
+        <v>2</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="61">
+        <v>3</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="56">
+        <v>4</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="66">
+        <v>5</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="82">
+        <v>1</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="83">
+        <v>2</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C41" s="76">
+        <v>3</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="77">
+        <v>4</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="88">
+        <v>5</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="89">
+        <v>6</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="88">
+        <v>7</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C46" s="83">
+        <v>8</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C47" s="99">
+        <v>9</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1113,8 +2099,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/project planning/API Endpoints.xlsx
+++ b/project planning/API Endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Resilio Sync\Daniel Schor\Studium\Module\Aktuell\WebApp\Projekt\Repo\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827501A-A8BF-4777-8F3B-7094B4F2EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650277D3-FE0F-4FB2-8AFE-3A8527B3604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -103,14 +103,6 @@
   </si>
   <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>/events/{eventID}/participants</t>
-  </si>
-  <si>
-    <t>200 OK
-204 No Content
-404 Not Found</t>
   </si>
   <si>
     <t>/events/{eventID}/remove/{userID}
@@ -169,11 +161,6 @@
     <t>/events/{eventID}/add/{userID}</t>
   </si>
   <si>
-    <t xml:space="preserve">200 OK
-404 Not Found
-</t>
-  </si>
-  <si>
     <t>/events/{eventID}/remove/{userID}</t>
   </si>
   <si>
@@ -183,6 +170,21 @@
     <t>200 OK
 404 Not Found
 400 Bad Request</t>
+  </si>
+  <si>
+    <t>201 Created
+422 Unprocessable Entity
+400 Bad Request</t>
+  </si>
+  <si>
+    <t>Location: /users/{userId}
+(keine zusätzlichen Header)
+(keine zusätzlichen Header)</t>
+  </si>
+  <si>
+    <t>Location: /events/{eventID}
+(keine zusätzlichen Header)
+(keine zusätzlichen Header)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -546,248 +548,200 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -849,6 +803,27 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -876,15 +851,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -893,7 +860,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -910,7 +877,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -927,7 +894,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -944,7 +911,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -974,6 +941,14 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -989,28 +964,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}" name="Tabelle2" displayName="Tabelle2" ref="C3:G17" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="13">
-  <autoFilter ref="C3:G17" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}" name="Tabelle2" displayName="Tabelle2" ref="C3:G16" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="C3:G16" xr:uid="{F9B5A248-0A50-40EB-B955-9C63445F86B6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC6E2D57-066A-454A-9442-01C57A7F31A0}" name="No." dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{95550AC8-0C27-4875-A6C7-CCCAFB9DFD52}" name="HTTP-Methode" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{0C62839A-F579-4042-866B-5EF0B9216FA1}" name="URl" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{A0DA9802-9B37-436F-B225-D48AA35CC625}" name="HTTP-Statuscode(s)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{95E14EF1-88FA-4E26-BF8D-8695B027DCF1}" name="HTTP Header" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DC6E2D57-066A-454A-9442-01C57A7F31A0}" name="No." dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{95550AC8-0C27-4875-A6C7-CCCAFB9DFD52}" name="HTTP-Methode" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0C62839A-F579-4042-866B-5EF0B9216FA1}" name="URl" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A0DA9802-9B37-436F-B225-D48AA35CC625}" name="HTTP-Statuscode(s)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{95E14EF1-88FA-4E26-BF8D-8695B027DCF1}" name="HTTP Header" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{306496EB-F9C2-4FF8-8AFD-A8CEB1C5144A}" name="Tabelle22" displayName="Tabelle22" ref="C19:G29" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="C19:G29" xr:uid="{306496EB-F9C2-4FF8-8AFD-A8CEB1C5144A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{306496EB-F9C2-4FF8-8AFD-A8CEB1C5144A}" name="Tabelle22" displayName="Tabelle22" ref="C18:G28" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="C18:G28" xr:uid="{306496EB-F9C2-4FF8-8AFD-A8CEB1C5144A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{311040A3-5AC1-4F93-A9EC-561F780EBAA0}" name="No." dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{21F7FAD3-B3CC-40CC-ACB8-7628049521CE}" name="HTTP-Methode" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3B012289-4A30-4C7E-B7C5-17C1A8578C6F}" name="URl" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{069F9D91-DC39-4594-86BC-C0E078086CAF}" name="HTTP-Statuscode(s)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9C55A180-DB51-456F-B6B3-E017B0238133}" name="HTTP Header" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{311040A3-5AC1-4F93-A9EC-561F780EBAA0}" name="No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{21F7FAD3-B3CC-40CC-ACB8-7628049521CE}" name="HTTP-Methode" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3B012289-4A30-4C7E-B7C5-17C1A8578C6F}" name="URl" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{069F9D91-DC39-4594-86BC-C0E078086CAF}" name="HTTP-Statuscode(s)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9C55A180-DB51-456F-B6B3-E017B0238133}" name="HTTP Header" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1313,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F2D08-239F-4D88-8E6A-1E4C636ABC07}">
-  <dimension ref="B3:L47"/>
+  <dimension ref="B3:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1309,7 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -1354,743 +1329,709 @@
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="28">
+      <c r="C4" s="73">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="77" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="33">
+      <c r="C5" s="78">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="82" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="33">
+      <c r="C6" s="78">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="82" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="33">
+      <c r="C7" s="78">
         <v>4</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="82" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="38">
+      <c r="C8" s="83">
         <v>5</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="G8" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="28">
+      <c r="C9" s="6">
         <v>6</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="33">
-        <v>7</v>
-      </c>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="11">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="G10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="33">
+      <c r="C11" s="78">
         <v>8</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>26</v>
+      <c r="D11" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="33">
+      <c r="C12" s="78">
         <v>9</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>18</v>
+      <c r="D12" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="33">
+      <c r="C13" s="14">
         <v>10</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="73">
         <v>11</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="D14" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="78">
+        <v>12</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="78">
+        <v>13</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="38">
+      <c r="G20" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="27">
+        <v>3</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="11">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="E22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="14">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="41" t="s">
+      <c r="E23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="43">
-        <v>12</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="43">
-        <v>13</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="38">
-        <v>14</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="G23" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="E24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="46">
-        <v>3</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="14">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" s="27">
+        <v>8</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="11">
+        <v>9</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="14">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="32">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="11">
-        <v>7</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="G31" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="37">
+        <v>2</v>
+      </c>
+      <c r="D32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E32" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="42">
+        <v>3</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" s="37">
+        <v>4</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="47">
+        <v>5</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="57">
+        <v>2</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F39" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="46">
+      <c r="G39" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="27">
+        <v>3</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C41" s="57">
+        <v>4</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="14">
+        <v>5</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C43" s="57">
+        <v>6</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="11">
+        <v>7</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="11">
-        <v>9</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="G44" s="90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="62">
+        <v>8</v>
+      </c>
+      <c r="D45" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="14">
-        <v>10</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="51">
-        <v>1</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="56">
-        <v>2</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="61">
-        <v>3</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="56">
-        <v>4</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="66">
-        <v>5</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="82">
-        <v>1</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="83">
-        <v>2</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="76">
-        <v>3</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="77">
-        <v>4</v>
-      </c>
-      <c r="D42" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="81" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="88">
-        <v>5</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="89">
-        <v>6</v>
-      </c>
-      <c r="D44" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="88">
-        <v>7</v>
-      </c>
-      <c r="D45" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="95" t="s">
+      <c r="E45" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" s="83">
-        <v>8</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="86" t="s">
+      <c r="F45" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C47" s="99">
-        <v>9</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="70" t="s">
-        <v>26</v>
+      <c r="G45" s="51" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/project planning/API Endpoints.xlsx
+++ b/project planning/API Endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Resilio Sync\Daniel Schor\Studium\Module\Aktuell\WebApp\Projekt\Repo\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650277D3-FE0F-4FB2-8AFE-3A8527B3604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527DEC73-814A-451B-8790-397EBC3B432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AEC6116-FBBD-4A6A-8287-4603E5F5CE05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -185,6 +185,17 @@
     <t>Location: /events/{eventID}
 (keine zusätzlichen Header)
 (keine zusätzlichen Header)</t>
+  </si>
+  <si>
+    <t>/events/remove/{userID}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(keine zusätzlichen Header)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 No Content
+</t>
   </si>
 </sst>
 </file>
@@ -470,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -647,9 +658,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -736,6 +744,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F2D08-239F-4D88-8E6A-1E4C636ABC07}">
-  <dimension ref="B3:L45"/>
+  <dimension ref="B3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,99 +1352,99 @@
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="78">
+      <c r="C5" s="77">
         <v>2</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="78">
+      <c r="C6" s="77">
         <v>3</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="81" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <v>4</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="81" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>5</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="91" t="s">
+      <c r="G8" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -1473,37 +1496,37 @@
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="78">
+      <c r="C11" s="77">
         <v>8</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="78">
+      <c r="C12" s="77">
         <v>9</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="81" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1526,53 +1549,53 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <v>11</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="78">
+      <c r="C15" s="77">
         <v>12</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="78">
+      <c r="C16" s="77">
         <v>13</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="86" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1967,70 +1990,87 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>5</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C43" s="57">
+      <c r="G42" s="65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="94">
         <v>6</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C44" s="11">
+        <v>7</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F44" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G44" s="69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="11">
-        <v>7</v>
-      </c>
-      <c r="D44" s="58" t="s">
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="57">
+        <v>8</v>
+      </c>
+      <c r="D45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E45" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F45" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="62">
-        <v>8</v>
-      </c>
-      <c r="D45" s="48" t="s">
+      <c r="G45" s="89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C46" s="14">
+        <v>9</v>
+      </c>
+      <c r="D46" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E46" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F46" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G46" s="51" t="s">
         <v>24</v>
       </c>
     </row>
